--- a/data-raw/dados_rj/validacao/escape_marcas_complementar.xlsx
+++ b/data-raw/dados_rj/validacao/escape_marcas_complementar.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,67 +657,67 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>d.p.m.s.</t>
+          <t>w-w</t>
         </is>
       </c>
       <c r="C30">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>w-w</t>
+          <t>western</t>
         </is>
       </c>
       <c r="C31">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>mfs</t>
         </is>
       </c>
       <c r="C32">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mfs</t>
+          <t>brown bear</t>
         </is>
       </c>
       <c r="C33">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>brown bear</t>
+          <t>gfl</t>
         </is>
       </c>
       <c r="C34">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>gfl</t>
+          <t>geco</t>
         </is>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>geco</t>
+          <t>taa</t>
         </is>
       </c>
       <c r="C36">
@@ -727,37 +727,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>taa</t>
+          <t>fbm</t>
         </is>
       </c>
       <c r="C37">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fbm</t>
+          <t>kspz</t>
         </is>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>kspz</t>
+          <t>anderson manufacturing</t>
         </is>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>anderson manufacturing</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="C40">
@@ -767,67 +767,67 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>psd</t>
         </is>
       </c>
       <c r="C41">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>psd</t>
+          <t>velox</t>
         </is>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>velox</t>
+          <t>tula arsenal</t>
         </is>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>tula arsenal</t>
+          <t>hornady</t>
         </is>
       </c>
       <c r="C44">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>hornady</t>
+          <t>manurhin</t>
         </is>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>manurhin</t>
+          <t>tac</t>
         </is>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tac</t>
+          <t>tzz</t>
         </is>
       </c>
       <c r="C47">
@@ -837,37 +837,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>tzz</t>
+          <t>iz - igman zavod</t>
         </is>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>iz - igman zavod</t>
+          <t>rheinische westfalische spreng</t>
         </is>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rheinische westfalische spreng</t>
+          <t>fnm</t>
         </is>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>fnm</t>
+          <t>h.&amp;.r.</t>
         </is>
       </c>
       <c r="C51">
@@ -877,27 +877,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>h.&amp;.r.</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>je</t>
         </is>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>je</t>
+          <t>mdrp</t>
         </is>
       </c>
       <c r="C54">
@@ -907,27 +907,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mdrp</t>
+          <t>condor</t>
         </is>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>condor</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>mab</t>
         </is>
       </c>
       <c r="C57">
@@ -937,17 +937,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mab</t>
+          <t>bh</t>
         </is>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>bh</t>
+          <t>eley brothers</t>
         </is>
       </c>
       <c r="C59">
@@ -957,7 +957,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>eley brothers</t>
+          <t>iver johnson</t>
         </is>
       </c>
       <c r="C60">
@@ -967,7 +967,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>iver johnson</t>
+          <t>savage</t>
         </is>
       </c>
       <c r="C61">
@@ -977,27 +977,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>savage</t>
+          <t>jules kaufmann</t>
         </is>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>jules kaufmann</t>
+          <t>fmsf</t>
         </is>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fmsf</t>
+          <t>ik</t>
         </is>
       </c>
       <c r="C64">
@@ -1007,7 +1007,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ik</t>
+          <t>ppu - prvi partizan uzice</t>
         </is>
       </c>
       <c r="C65">
@@ -1017,7 +1017,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ppu - prvi partizan uzice</t>
+          <t>zafer</t>
         </is>
       </c>
       <c r="C66">
@@ -1027,17 +1027,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zafer</t>
+          <t>amt</t>
         </is>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>amt</t>
+          <t>armsan</t>
         </is>
       </c>
       <c r="C68">
@@ -1047,7 +1047,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>armsan</t>
+          <t>dreadnought</t>
         </is>
       </c>
       <c r="C69">
@@ -1057,7 +1057,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>cetme</t>
+          <t>f.&amp;.l.</t>
         </is>
       </c>
       <c r="C70">
@@ -1067,7 +1067,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dreadnought</t>
+          <t>gg</t>
         </is>
       </c>
       <c r="C71">
@@ -1077,7 +1077,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>f.&amp;.l.</t>
+          <t>palmetto state armory</t>
         </is>
       </c>
       <c r="C72">
@@ -1087,7 +1087,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>rohm</t>
         </is>
       </c>
       <c r="C73">
@@ -1097,27 +1097,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>palmetto state armory</t>
+          <t>garate anitua y cia</t>
         </is>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rohm</t>
+          <t>m.a.c.</t>
         </is>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>garate anitua y cia</t>
+          <t>madsen</t>
         </is>
       </c>
       <c r="C76">
@@ -1127,7 +1127,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>m.a.c.</t>
+          <t>ojanguren y</t>
         </is>
       </c>
       <c r="C77">
@@ -1137,27 +1137,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>madsen</t>
+          <t>franchi</t>
         </is>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ojanguren y</t>
+          <t>gb</t>
         </is>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>franchi</t>
+          <t>mke</t>
         </is>
       </c>
       <c r="C80">
@@ -1167,7 +1167,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>gb</t>
+          <t>norma</t>
         </is>
       </c>
       <c r="C81">
@@ -1177,7 +1177,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mke</t>
+          <t>prt industries</t>
         </is>
       </c>
       <c r="C82">
@@ -1187,7 +1187,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>norma</t>
+          <t>simson</t>
         </is>
       </c>
       <c r="C83">
@@ -1197,27 +1197,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>prt industries</t>
+          <t>b.f.i.</t>
         </is>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>simson</t>
+          <t>ithaca</t>
         </is>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>b.f.i.</t>
+          <t>lorcin</t>
         </is>
       </c>
       <c r="C86">
@@ -1227,7 +1227,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ithaca</t>
+          <t>sfm</t>
         </is>
       </c>
       <c r="C87">
@@ -1237,7 +1237,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>lorcin</t>
+          <t>sl</t>
         </is>
       </c>
       <c r="C88">
@@ -1247,7 +1247,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sfm</t>
+          <t>tcw</t>
         </is>
       </c>
       <c r="C89">
@@ -1257,7 +1257,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sl</t>
+          <t>ulyanovsk</t>
         </is>
       </c>
       <c r="C90">
@@ -1267,27 +1267,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>tcw</t>
+          <t>aguirre y aranzabal</t>
         </is>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ulyanovsk</t>
+          <t>clever mirage</t>
         </is>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>aguirre y aranzabal</t>
+          <t>cpm</t>
         </is>
       </c>
       <c r="C93">
@@ -1297,7 +1297,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>clever mirage</t>
+          <t>era</t>
         </is>
       </c>
       <c r="C94">
@@ -1307,7 +1307,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cpm</t>
+          <t>inland</t>
         </is>
       </c>
       <c r="C95">
@@ -1317,7 +1317,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>pmp</t>
         </is>
       </c>
       <c r="C96">
@@ -1327,7 +1327,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>inland</t>
+          <t>radom</t>
         </is>
       </c>
       <c r="C97">
@@ -1337,7 +1337,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pmp</t>
+          <t>retolaza hermanos</t>
         </is>
       </c>
       <c r="C98">
@@ -1347,7 +1347,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>radom</t>
+          <t>rpb</t>
         </is>
       </c>
       <c r="C99">
@@ -1357,7 +1357,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>retolaza hermanos</t>
+          <t>rubi</t>
         </is>
       </c>
       <c r="C100">
@@ -1367,7 +1367,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rpb</t>
+          <t>sporter</t>
         </is>
       </c>
       <c r="C101">
@@ -1377,27 +1377,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>rubi</t>
+          <t>a-merc</t>
         </is>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>sporter</t>
+          <t>breda</t>
         </is>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>a-merc</t>
+          <t>bryco arms</t>
         </is>
       </c>
       <c r="C104">
@@ -1407,7 +1407,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>breda</t>
+          <t>combined logistics command</t>
         </is>
       </c>
       <c r="C105">
@@ -1417,7 +1417,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>bryco arms</t>
+          <t>coonan</t>
         </is>
       </c>
       <c r="C106">
@@ -1427,7 +1427,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>combined logistics command</t>
+          <t>eldorado</t>
         </is>
       </c>
       <c r="C107">
@@ -1437,7 +1437,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>coonan</t>
+          <t>gfc</t>
         </is>
       </c>
       <c r="C108">
@@ -1447,7 +1447,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>dgfm (fmap)</t>
+          <t>gh</t>
         </is>
       </c>
       <c r="C109">
@@ -1457,7 +1457,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>eldorado</t>
+          <t>maadi company</t>
         </is>
       </c>
       <c r="C110">
@@ -1467,7 +1467,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>gfc</t>
+          <t>magnum</t>
         </is>
       </c>
       <c r="C111">
@@ -1477,7 +1477,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>gh</t>
+          <t>mahely</t>
         </is>
       </c>
       <c r="C112">
@@ -1487,7 +1487,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>maadi company</t>
+          <t>midway</t>
         </is>
       </c>
       <c r="C113">
@@ -1497,7 +1497,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>magnum</t>
+          <t>ordnance</t>
         </is>
       </c>
       <c r="C114">
@@ -1507,7 +1507,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>mahely</t>
+          <t>pehuen</t>
         </is>
       </c>
       <c r="C115">
@@ -1517,7 +1517,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>midway</t>
+          <t>red army</t>
         </is>
       </c>
       <c r="C116">
@@ -1527,7 +1527,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ordnance</t>
+          <t>stevens</t>
         </is>
       </c>
       <c r="C117">
@@ -1537,7 +1537,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>pehuen</t>
+          <t>v. c. schilling</t>
         </is>
       </c>
       <c r="C118">
@@ -1547,7 +1547,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>red army</t>
+          <t>webley &amp; scott</t>
         </is>
       </c>
       <c r="C119">
@@ -1557,37 +1557,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>stevens</t>
+          <t>d.w.a.</t>
         </is>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>v. c. schilling</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>webley &amp; scott</t>
+          <t>e.a.co.</t>
         </is>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>d.w.a.</t>
+          <t>eagle</t>
         </is>
       </c>
       <c r="C123">
@@ -1597,7 +1597,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>davis</t>
+          <t>ec</t>
         </is>
       </c>
       <c r="C124">
@@ -1607,7 +1607,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>e.a.co.</t>
+          <t>esc</t>
         </is>
       </c>
       <c r="C125">
@@ -1617,7 +1617,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>eagle</t>
+          <t>gewehr</t>
         </is>
       </c>
       <c r="C126">
@@ -1627,7 +1627,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ec</t>
+          <t>halcon</t>
         </is>
       </c>
       <c r="C127">
@@ -1637,7 +1637,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>esc</t>
+          <t>hi-standard</t>
         </is>
       </c>
       <c r="C128">
@@ -1647,7 +1647,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>gewehr</t>
+          <t>l. beaux &amp; c</t>
         </is>
       </c>
       <c r="C129">
@@ -1657,7 +1657,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>halcon</t>
+          <t>manufrance</t>
         </is>
       </c>
       <c r="C130">
@@ -1667,7 +1667,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>hi-standard</t>
+          <t>mil</t>
         </is>
       </c>
       <c r="C131">
@@ -1677,7 +1677,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>l. beaux &amp; c</t>
+          <t>olimpic</t>
         </is>
       </c>
       <c r="C132">
@@ -1687,7 +1687,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>manufrance</t>
+          <t>para - ordnance</t>
         </is>
       </c>
       <c r="C133">
@@ -1697,7 +1697,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mil</t>
+          <t>pwa</t>
         </is>
       </c>
       <c r="C134">
@@ -1707,7 +1707,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>olimpic</t>
+          <t>radarm</t>
         </is>
       </c>
       <c r="C135">
@@ -1717,7 +1717,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>para - ordnance</t>
+          <t>rhoner</t>
         </is>
       </c>
       <c r="C136">
@@ -1727,7 +1727,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>pwa</t>
+          <t>saurio</t>
         </is>
       </c>
       <c r="C137">
@@ -1737,7 +1737,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>radarm</t>
+          <t>schultz &amp; larsen</t>
         </is>
       </c>
       <c r="C138">
@@ -1747,7 +1747,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>rhoner</t>
+          <t>sentinel</t>
         </is>
       </c>
       <c r="C139">
@@ -1757,7 +1757,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>saurio</t>
+          <t>shaffer kaufmann</t>
         </is>
       </c>
       <c r="C140">
@@ -1767,7 +1767,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>schultz &amp; larsen</t>
+          <t>sportman</t>
         </is>
       </c>
       <c r="C141">
@@ -1777,7 +1777,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sentinel</t>
+          <t>thieme &amp; edeler</t>
         </is>
       </c>
       <c r="C142">
@@ -1787,7 +1787,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>shaffer kaufmann</t>
+          <t>tokarev</t>
         </is>
       </c>
       <c r="C143">
@@ -1797,7 +1797,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>sportman</t>
+          <t>tomahawk</t>
         </is>
       </c>
       <c r="C144">
@@ -1807,7 +1807,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>thieme &amp; edeler</t>
+          <t>tw</t>
         </is>
       </c>
       <c r="C145">
@@ -1817,40 +1817,10 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tokarev</t>
+          <t>tz</t>
         </is>
       </c>
       <c r="C146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>tomahawk</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>tw</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>tz</t>
-        </is>
-      </c>
-      <c r="C149">
         <v>1</v>
       </c>
     </row>

--- a/data-raw/dados_rj/validacao/escape_marcas_complementar.xlsx
+++ b/data-raw/dados_rj/validacao/escape_marcas_complementar.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +747,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>anderson manufacturing</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="C39">
@@ -757,517 +757,517 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>psd</t>
         </is>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>psd</t>
+          <t>velox</t>
         </is>
       </c>
       <c r="C41">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>velox</t>
+          <t>tula arsenal</t>
         </is>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>tula arsenal</t>
+          <t>hornady</t>
         </is>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hornady</t>
+          <t>tac</t>
         </is>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>manurhin</t>
+          <t>tzz</t>
         </is>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>tac</t>
+          <t>iz - igman zavod</t>
         </is>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tzz</t>
+          <t>rheinische westfalische spreng</t>
         </is>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>iz - igman zavod</t>
+          <t>fnm</t>
         </is>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>rheinische westfalische spreng</t>
+          <t>h.&amp;.r.</t>
         </is>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fnm</t>
+          <t>sp</t>
         </is>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>h.&amp;.r.</t>
+          <t>je</t>
         </is>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sp</t>
+          <t>mdrp</t>
         </is>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>je</t>
+          <t>condor</t>
         </is>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mdrp</t>
+          <t>hp</t>
         </is>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>condor</t>
+          <t>mab</t>
         </is>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hp</t>
+          <t>eley brothers</t>
         </is>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mab</t>
+          <t>iver johnson</t>
         </is>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>bh</t>
+          <t>jules kaufmann</t>
         </is>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>eley brothers</t>
+          <t>fmsf</t>
         </is>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>iver johnson</t>
+          <t>ik</t>
         </is>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>savage</t>
+          <t>ppu - prvi partizan uzice</t>
         </is>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jules kaufmann</t>
+          <t>zafer</t>
         </is>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fmsf</t>
+          <t>dreadnought</t>
         </is>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ik</t>
+          <t>f.&amp;.l.</t>
         </is>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ppu - prvi partizan uzice</t>
+          <t>gg</t>
         </is>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>zafer</t>
+          <t>rohm</t>
         </is>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>amt</t>
+          <t>garate anitua y cia</t>
         </is>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>armsan</t>
+          <t>ojanguren y</t>
         </is>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>dreadnought</t>
+          <t>franchi</t>
         </is>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>f.&amp;.l.</t>
+          <t>gb</t>
         </is>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gg</t>
+          <t>mke</t>
         </is>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>palmetto state armory</t>
+          <t>norma</t>
         </is>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rohm</t>
+          <t>prt industries</t>
         </is>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>garate anitua y cia</t>
+          <t>simson</t>
         </is>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>m.a.c.</t>
+          <t>b.f.i.</t>
         </is>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>madsen</t>
+          <t>lorcin</t>
         </is>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ojanguren y</t>
+          <t>sfm</t>
         </is>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>franchi</t>
+          <t>sl</t>
         </is>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>gb</t>
+          <t>tcw</t>
         </is>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mke</t>
+          <t>ulyanovsk</t>
         </is>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>norma</t>
+          <t>aguirre y aranzabal</t>
         </is>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>prt industries</t>
+          <t>clever mirage</t>
         </is>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>simson</t>
+          <t>cpm</t>
         </is>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b.f.i.</t>
+          <t>era</t>
         </is>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ithaca</t>
+          <t>inland</t>
         </is>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>lorcin</t>
+          <t>pmp</t>
         </is>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>sfm</t>
+          <t>radom</t>
         </is>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sl</t>
+          <t>retolaza hermanos</t>
         </is>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tcw</t>
+          <t>rpb</t>
         </is>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ulyanovsk</t>
+          <t>rubi</t>
         </is>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>aguirre y aranzabal</t>
+          <t>sporter</t>
         </is>
       </c>
       <c r="C91">
@@ -1277,107 +1277,107 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>clever mirage</t>
+          <t>a-merc</t>
         </is>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>cpm</t>
+          <t>breda</t>
         </is>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>era</t>
+          <t>bryco arms</t>
         </is>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>inland</t>
+          <t>combined logistics command</t>
         </is>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pmp</t>
+          <t>coonan</t>
         </is>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>radom</t>
+          <t>eldorado</t>
         </is>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>retolaza hermanos</t>
+          <t>gfc</t>
         </is>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>rpb</t>
+          <t>gh</t>
         </is>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rubi</t>
+          <t>maadi company</t>
         </is>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sporter</t>
+          <t>magnum</t>
         </is>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>a-merc</t>
+          <t>mahely</t>
         </is>
       </c>
       <c r="C102">
@@ -1387,7 +1387,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>breda</t>
+          <t>midway</t>
         </is>
       </c>
       <c r="C103">
@@ -1397,7 +1397,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>bryco arms</t>
+          <t>ordnance</t>
         </is>
       </c>
       <c r="C104">
@@ -1407,7 +1407,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>combined logistics command</t>
+          <t>pehuen</t>
         </is>
       </c>
       <c r="C105">
@@ -1417,7 +1417,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>coonan</t>
+          <t>red army</t>
         </is>
       </c>
       <c r="C106">
@@ -1427,7 +1427,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>eldorado</t>
+          <t>stevens</t>
         </is>
       </c>
       <c r="C107">
@@ -1437,7 +1437,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gfc</t>
+          <t>v. c. schilling</t>
         </is>
       </c>
       <c r="C108">
@@ -1447,7 +1447,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>gh</t>
+          <t>webley &amp; scott</t>
         </is>
       </c>
       <c r="C109">
@@ -1457,107 +1457,107 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>maadi company</t>
+          <t>d.w.a.</t>
         </is>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>magnum</t>
+          <t>davis</t>
         </is>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>mahely</t>
+          <t>e.a.co.</t>
         </is>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>midway</t>
+          <t>eagle</t>
         </is>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ordnance</t>
+          <t>ec</t>
         </is>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>pehuen</t>
+          <t>esc</t>
         </is>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>red army</t>
+          <t>gewehr</t>
         </is>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>stevens</t>
+          <t>halcon</t>
         </is>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>v. c. schilling</t>
+          <t>hi-standard</t>
         </is>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>webley &amp; scott</t>
+          <t>l. beaux &amp; c</t>
         </is>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>d.w.a.</t>
+          <t>manufrance</t>
         </is>
       </c>
       <c r="C120">
@@ -1567,7 +1567,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>davis</t>
+          <t>mil</t>
         </is>
       </c>
       <c r="C121">
@@ -1577,7 +1577,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>e.a.co.</t>
+          <t>olimpic</t>
         </is>
       </c>
       <c r="C122">
@@ -1587,7 +1587,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>eagle</t>
+          <t>para - ordnance</t>
         </is>
       </c>
       <c r="C123">
@@ -1597,7 +1597,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ec</t>
+          <t>pwa</t>
         </is>
       </c>
       <c r="C124">
@@ -1607,7 +1607,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>esc</t>
+          <t>radarm</t>
         </is>
       </c>
       <c r="C125">
@@ -1617,7 +1617,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>gewehr</t>
+          <t>rhoner</t>
         </is>
       </c>
       <c r="C126">
@@ -1627,7 +1627,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>halcon</t>
+          <t>saurio</t>
         </is>
       </c>
       <c r="C127">
@@ -1637,7 +1637,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>hi-standard</t>
+          <t>schultz &amp; larsen</t>
         </is>
       </c>
       <c r="C128">
@@ -1647,7 +1647,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>l. beaux &amp; c</t>
+          <t>sentinel</t>
         </is>
       </c>
       <c r="C129">
@@ -1657,7 +1657,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>manufrance</t>
+          <t>shaffer kaufmann</t>
         </is>
       </c>
       <c r="C130">
@@ -1667,7 +1667,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mil</t>
+          <t>sportman</t>
         </is>
       </c>
       <c r="C131">
@@ -1677,7 +1677,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>olimpic</t>
+          <t>thieme &amp; edeler</t>
         </is>
       </c>
       <c r="C132">
@@ -1687,7 +1687,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>para - ordnance</t>
+          <t>tokarev</t>
         </is>
       </c>
       <c r="C133">
@@ -1697,7 +1697,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>pwa</t>
+          <t>tomahawk</t>
         </is>
       </c>
       <c r="C134">
@@ -1707,7 +1707,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>radarm</t>
+          <t>tw</t>
         </is>
       </c>
       <c r="C135">
@@ -1717,110 +1717,10 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rhoner</t>
+          <t>tz</t>
         </is>
       </c>
       <c r="C136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>saurio</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>schultz &amp; larsen</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>sentinel</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>shaffer kaufmann</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>sportman</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>thieme &amp; edeler</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>tokarev</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>tomahawk</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>tw</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>tz</t>
-        </is>
-      </c>
-      <c r="C146">
         <v>1</v>
       </c>
     </row>
